--- a/examples/lusid/run-valuation/_data/simplified_valuation_data.xlsx
+++ b/examples/lusid/run-valuation/_data/simplified_valuation_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\gl\luminesce-examples\examples\lusid\run-valuation\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135ED5ED-66BF-45EA-BC78-4914455BAE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB81BEC-0E87-44B8-8992-031DEAC21876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{9B4C99D2-EDDB-4E52-8D2A-FA7E829BFF4E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{9B4C99D2-EDDB-4E52-8D2A-FA7E829BFF4E}"/>
   </bookViews>
   <sheets>
     <sheet name="transactions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12287" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12389" uniqueCount="857">
   <si>
     <t>portfolio_code</t>
   </si>
@@ -4726,7 +4726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6A011C-E39C-4CC1-B905-709A4578390A}">
   <dimension ref="A1:G2122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -53546,10 +53546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76951736-B02C-487C-8B9A-A41D3F0AAEA0}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -53559,18 +53559,19 @@
     <col min="3" max="3" width="17.15625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.68359375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.3125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.05078125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7890625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.05078125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>88</v>
       </c>
@@ -53587,34 +53588,37 @@
         <v>89</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>421</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>422</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>423</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>424</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>425</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>426</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>427</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
@@ -53631,34 +53635,37 @@
         <v>96</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>430</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>431</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>432</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>433</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>434</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>435</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>436</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>119</v>
       </c>
@@ -53675,34 +53682,37 @@
         <v>120</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>439</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>431</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>440</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>441</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>442</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>443</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>442</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
@@ -53719,34 +53729,37 @@
         <v>124</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>445</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>431</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>446</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>447</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>442</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>448</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>442</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
         <v>127</v>
       </c>
@@ -53763,34 +53776,37 @@
         <v>120</v>
       </c>
       <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>449</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>431</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>450</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>451</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>442</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>452</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>442</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
         <v>131</v>
       </c>
@@ -53807,34 +53823,37 @@
         <v>132</v>
       </c>
       <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>453</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>431</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>454</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>455</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>442</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>456</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>442</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
         <v>135</v>
       </c>
@@ -53851,34 +53870,37 @@
         <v>136</v>
       </c>
       <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>457</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>431</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>458</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>459</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>442</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>460</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>442</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -53895,34 +53917,37 @@
         <v>138</v>
       </c>
       <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
         <v>463</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>431</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>464</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>465</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>442</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>466</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>442</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -53939,34 +53964,37 @@
         <v>124</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>467</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>431</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>468</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>469</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>442</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>470</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>442</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -53983,34 +54011,37 @@
         <v>141</v>
       </c>
       <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>472</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>431</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>473</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>474</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>442</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>25</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>475</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>442</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>144</v>
       </c>
@@ -54027,34 +54058,37 @@
         <v>145</v>
       </c>
       <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
         <v>478</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>431</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>479</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>480</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>442</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>25</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>481</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>442</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -54071,34 +54105,37 @@
         <v>147</v>
       </c>
       <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>483</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>431</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>484</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>485</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>442</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>486</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>442</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>150</v>
       </c>
@@ -54115,34 +54152,37 @@
         <v>155</v>
       </c>
       <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>487</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>431</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>488</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>489</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>442</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>490</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>442</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
         <v>154</v>
       </c>
@@ -54159,34 +54199,37 @@
         <v>155</v>
       </c>
       <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
         <v>491</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>431</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>492</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>493</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>442</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>494</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>442</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>158</v>
       </c>
@@ -54203,34 +54246,37 @@
         <v>198</v>
       </c>
       <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
         <v>496</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>431</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>497</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>498</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>442</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>25</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>499</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>442</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
         <v>162</v>
       </c>
@@ -54247,34 +54293,37 @@
         <v>163</v>
       </c>
       <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>501</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>431</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>502</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>503</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>442</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>25</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>504</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>442</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
         <v>166</v>
       </c>
@@ -54291,34 +54340,37 @@
         <v>141</v>
       </c>
       <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
         <v>505</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>431</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>506</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>507</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>442</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>25</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>508</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>442</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
         <v>169</v>
       </c>
@@ -54335,34 +54387,37 @@
         <v>155</v>
       </c>
       <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
         <v>509</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>431</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>510</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>511</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>442</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>25</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>512</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>442</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
         <v>172</v>
       </c>
@@ -54379,34 +54434,37 @@
         <v>138</v>
       </c>
       <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
         <v>513</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>431</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>514</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>515</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>442</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>25</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>516</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>442</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
         <v>175</v>
       </c>
@@ -54423,34 +54481,37 @@
         <v>176</v>
       </c>
       <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
         <v>517</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>431</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>518</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>519</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>442</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>25</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>520</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>442</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
         <v>179</v>
       </c>
@@ -54467,34 +54528,37 @@
         <v>145</v>
       </c>
       <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
         <v>521</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>431</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>522</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>523</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>442</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>25</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>524</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>442</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
         <v>182</v>
       </c>
@@ -54511,34 +54575,37 @@
         <v>145</v>
       </c>
       <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
         <v>525</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>431</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>526</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>527</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>442</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>25</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>528</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>442</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
         <v>186</v>
       </c>
@@ -54555,34 +54622,37 @@
         <v>187</v>
       </c>
       <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
         <v>529</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>431</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>530</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>531</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>442</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>25</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>532</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>442</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="5" t="s">
         <v>190</v>
       </c>
@@ -54599,34 +54669,37 @@
         <v>138</v>
       </c>
       <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
         <v>533</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>431</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>534</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>535</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>442</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>536</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>442</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
@@ -54643,34 +54716,37 @@
         <v>194</v>
       </c>
       <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
         <v>537</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>431</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>538</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>539</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>442</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>25</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>540</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>442</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
         <v>197</v>
       </c>
@@ -54687,34 +54763,37 @@
         <v>198</v>
       </c>
       <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
         <v>541</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>431</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>542</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>543</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>442</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>25</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>544</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>442</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
         <v>201</v>
       </c>
@@ -54731,34 +54810,37 @@
         <v>132</v>
       </c>
       <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
         <v>545</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>431</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>546</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>547</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>442</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>25</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>548</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>442</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -54775,34 +54857,37 @@
         <v>198</v>
       </c>
       <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
         <v>549</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>431</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>550</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>551</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>442</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>25</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>552</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>442</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
         <v>205</v>
       </c>
@@ -54819,34 +54904,37 @@
         <v>155</v>
       </c>
       <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
         <v>553</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>431</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>554</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>555</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>442</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>25</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>556</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>442</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="5" t="s">
         <v>208</v>
       </c>
@@ -54863,34 +54951,37 @@
         <v>155</v>
       </c>
       <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
         <v>557</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>431</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>558</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>559</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>442</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>25</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>560</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>442</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
         <v>211</v>
       </c>
@@ -54907,34 +54998,37 @@
         <v>212</v>
       </c>
       <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
         <v>562</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>431</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>563</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>564</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>565</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>25</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>566</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>565</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
         <v>215</v>
       </c>
@@ -54951,34 +55045,37 @@
         <v>345</v>
       </c>
       <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
         <v>567</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>431</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>568</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>569</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>442</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>25</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>570</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>442</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
@@ -54995,34 +55092,37 @@
         <v>218</v>
       </c>
       <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
         <v>572</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>431</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>573</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>574</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>442</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>25</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>575</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>442</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" s="5" t="s">
         <v>221</v>
       </c>
@@ -55039,34 +55139,37 @@
         <v>222</v>
       </c>
       <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
         <v>577</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>431</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>578</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>579</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>442</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>25</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>580</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>442</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -55083,34 +55186,37 @@
         <v>212</v>
       </c>
       <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
         <v>581</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>431</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>582</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>583</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>565</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>25</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>584</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>565</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36" s="5" t="s">
         <v>226</v>
       </c>
@@ -55127,34 +55233,37 @@
         <v>222</v>
       </c>
       <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
         <v>585</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>431</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>586</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>587</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>442</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>25</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>588</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>442</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15">
       <c r="A37" s="5" t="s">
         <v>229</v>
       </c>
@@ -55171,34 +55280,37 @@
         <v>230</v>
       </c>
       <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
         <v>589</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>431</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>590</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>591</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>442</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>25</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>592</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>442</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38" s="5" t="s">
         <v>233</v>
       </c>
@@ -55215,34 +55327,37 @@
         <v>218</v>
       </c>
       <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
         <v>593</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>431</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>594</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>595</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>442</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>25</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>596</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>442</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15">
       <c r="A39" s="5" t="s">
         <v>65</v>
       </c>
@@ -55259,34 +55374,37 @@
         <v>145</v>
       </c>
       <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
         <v>597</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>431</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>598</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>599</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>442</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>25</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>600</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>442</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15">
       <c r="A40" s="5" t="s">
         <v>237</v>
       </c>
@@ -55303,34 +55421,37 @@
         <v>145</v>
       </c>
       <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
         <v>601</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>431</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>602</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>603</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>442</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>25</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>604</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>442</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41" s="5" t="s">
         <v>59</v>
       </c>
@@ -55347,34 +55468,37 @@
         <v>222</v>
       </c>
       <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
         <v>605</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>431</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>606</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>607</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>442</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>25</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>608</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>442</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15">
       <c r="A42" s="5" t="s">
         <v>241</v>
       </c>
@@ -55391,34 +55515,37 @@
         <v>145</v>
       </c>
       <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
         <v>609</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>431</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>610</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>611</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>442</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>25</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>612</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>442</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15">
       <c r="A43" s="5" t="s">
         <v>244</v>
       </c>
@@ -55435,34 +55562,37 @@
         <v>145</v>
       </c>
       <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
         <v>613</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>431</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>614</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>615</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>442</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>25</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>616</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>442</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44" s="5" t="s">
         <v>247</v>
       </c>
@@ -55479,34 +55609,37 @@
         <v>218</v>
       </c>
       <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
         <v>617</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>431</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>618</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>619</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>442</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>25</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>620</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>442</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:15">
       <c r="A45" s="5" t="s">
         <v>250</v>
       </c>
@@ -55523,34 +55656,37 @@
         <v>141</v>
       </c>
       <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
         <v>621</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>431</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>622</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>623</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>442</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>25</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>624</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>442</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="5" t="s">
         <v>253</v>
       </c>
@@ -55567,34 +55703,37 @@
         <v>254</v>
       </c>
       <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
         <v>625</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>431</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>626</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>627</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>442</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>25</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>628</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>442</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="5" t="s">
         <v>257</v>
       </c>
@@ -55611,34 +55750,37 @@
         <v>198</v>
       </c>
       <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
         <v>629</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>431</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>630</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>631</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>442</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>25</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>632</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>442</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" s="5" t="s">
         <v>260</v>
       </c>
@@ -55655,34 +55797,37 @@
         <v>261</v>
       </c>
       <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
         <v>633</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>431</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>634</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>635</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>442</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>25</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>636</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>442</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:15">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -55699,34 +55844,37 @@
         <v>263</v>
       </c>
       <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
         <v>637</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>431</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>638</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>639</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>442</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>25</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>640</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>442</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:15">
       <c r="A50" s="5" t="s">
         <v>266</v>
       </c>
@@ -55743,34 +55891,37 @@
         <v>138</v>
       </c>
       <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
         <v>641</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>431</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>642</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>643</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>442</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>25</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>644</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>442</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:15">
       <c r="A51" s="5" t="s">
         <v>269</v>
       </c>
@@ -55787,34 +55938,37 @@
         <v>141</v>
       </c>
       <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
         <v>645</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>431</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>646</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>647</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>442</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>25</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>648</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>442</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:15">
       <c r="A52" s="5" t="s">
         <v>272</v>
       </c>
@@ -55831,34 +55985,37 @@
         <v>212</v>
       </c>
       <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
         <v>649</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>431</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>650</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>651</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>565</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>25</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>652</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>565</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:15">
       <c r="A53" s="5" t="s">
         <v>275</v>
       </c>
@@ -55875,34 +56032,37 @@
         <v>276</v>
       </c>
       <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
         <v>653</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>431</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>654</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>655</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>442</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>25</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>656</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>442</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:15">
       <c r="A54" s="5" t="s">
         <v>279</v>
       </c>
@@ -55919,34 +56079,37 @@
         <v>145</v>
       </c>
       <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
         <v>657</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>431</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>658</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>659</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>442</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>25</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>660</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>442</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55" s="5" t="s">
         <v>282</v>
       </c>
@@ -55963,34 +56126,37 @@
         <v>283</v>
       </c>
       <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
         <v>661</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>431</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>662</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>663</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>442</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>25</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>664</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>442</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:15">
       <c r="A56" s="5" t="s">
         <v>286</v>
       </c>
@@ -56007,34 +56173,37 @@
         <v>287</v>
       </c>
       <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
         <v>665</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>431</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>666</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>667</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>442</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>25</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>668</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>442</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:15">
       <c r="A57" s="5" t="s">
         <v>290</v>
       </c>
@@ -56051,34 +56220,37 @@
         <v>120</v>
       </c>
       <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
         <v>669</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>431</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>670</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>671</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>442</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>25</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>672</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>442</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:15">
       <c r="A58" s="5" t="s">
         <v>62</v>
       </c>
@@ -56095,34 +56267,37 @@
         <v>673</v>
       </c>
       <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
         <v>674</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>431</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>675</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>676</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>442</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>25</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>677</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>442</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:15">
       <c r="A59" s="5" t="s">
         <v>295</v>
       </c>
@@ -56139,34 +56314,37 @@
         <v>120</v>
       </c>
       <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
         <v>678</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>431</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>679</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>680</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>442</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>25</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>681</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>442</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:15">
       <c r="A60" s="5" t="s">
         <v>298</v>
       </c>
@@ -56183,34 +56361,37 @@
         <v>673</v>
       </c>
       <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
         <v>682</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>431</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>683</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>684</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>442</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>25</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>685</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>442</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:15">
       <c r="A61" s="5" t="s">
         <v>301</v>
       </c>
@@ -56227,34 +56408,37 @@
         <v>155</v>
       </c>
       <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
         <v>686</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>431</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>687</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>688</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>442</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>25</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>689</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>442</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:15">
       <c r="A62" s="5" t="s">
         <v>304</v>
       </c>
@@ -56271,34 +56455,37 @@
         <v>120</v>
       </c>
       <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
         <v>690</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>431</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>691</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>692</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>442</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>25</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>693</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>442</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:15">
       <c r="A63" s="5" t="s">
         <v>307</v>
       </c>
@@ -56315,34 +56502,37 @@
         <v>254</v>
       </c>
       <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
         <v>694</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>431</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>695</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>696</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>442</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>25</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>697</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>442</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:15">
       <c r="A64" s="5" t="s">
         <v>310</v>
       </c>
@@ -56359,34 +56549,37 @@
         <v>218</v>
       </c>
       <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
         <v>698</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>431</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>699</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>700</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>442</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>25</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>701</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>442</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:15">
       <c r="A65" s="5" t="s">
         <v>313</v>
       </c>
@@ -56403,34 +56596,37 @@
         <v>141</v>
       </c>
       <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
         <v>702</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>431</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>703</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>704</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>442</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>25</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>705</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>442</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:15">
       <c r="A66" s="5" t="s">
         <v>20</v>
       </c>
@@ -56447,34 +56643,37 @@
         <v>120</v>
       </c>
       <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
         <v>706</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>431</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>707</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>708</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>442</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>25</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>709</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>442</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:15">
       <c r="A67" s="5" t="s">
         <v>317</v>
       </c>
@@ -56491,34 +56690,37 @@
         <v>318</v>
       </c>
       <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
         <v>710</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>431</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>711</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>712</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>442</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>25</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>713</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>442</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:15">
       <c r="A68" s="5" t="s">
         <v>321</v>
       </c>
@@ -56535,34 +56737,37 @@
         <v>322</v>
       </c>
       <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
         <v>714</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>431</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>715</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>716</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>442</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>25</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>717</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>442</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:15">
       <c r="A69" s="5" t="s">
         <v>325</v>
       </c>
@@ -56579,34 +56784,37 @@
         <v>261</v>
       </c>
       <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
         <v>718</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>431</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>719</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>720</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>442</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>25</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>721</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>442</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:15">
       <c r="A70" s="5" t="s">
         <v>328</v>
       </c>
@@ -56623,34 +56831,37 @@
         <v>218</v>
       </c>
       <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
         <v>722</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>431</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>723</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>724</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>442</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>25</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>725</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>442</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:15">
       <c r="A71" s="5" t="s">
         <v>331</v>
       </c>
@@ -56667,34 +56878,37 @@
         <v>187</v>
       </c>
       <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
         <v>726</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>431</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>727</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>728</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>442</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>25</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>729</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>442</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:15">
       <c r="A72" s="5" t="s">
         <v>334</v>
       </c>
@@ -56711,34 +56925,37 @@
         <v>335</v>
       </c>
       <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
         <v>730</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>431</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>731</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>732</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>442</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>25</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>733</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>442</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:15">
       <c r="A73" s="5" t="s">
         <v>338</v>
       </c>
@@ -56755,34 +56972,37 @@
         <v>163</v>
       </c>
       <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
         <v>734</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>431</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>735</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>736</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>442</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>25</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>737</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>442</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:15">
       <c r="A74" s="5" t="s">
         <v>341</v>
       </c>
@@ -56799,34 +57019,37 @@
         <v>335</v>
       </c>
       <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
         <v>738</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>431</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>739</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>740</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>442</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>25</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>741</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>442</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:15">
       <c r="A75" s="5" t="s">
         <v>344</v>
       </c>
@@ -56843,34 +57066,37 @@
         <v>345</v>
       </c>
       <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s">
         <v>742</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>431</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>743</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>744</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>442</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>25</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>745</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>442</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:15">
       <c r="A76" s="5" t="s">
         <v>348</v>
       </c>
@@ -56887,34 +57113,37 @@
         <v>345</v>
       </c>
       <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
         <v>746</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>431</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>747</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>748</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>442</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>25</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>749</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>442</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:15">
       <c r="A77" s="5" t="s">
         <v>351</v>
       </c>
@@ -56931,34 +57160,37 @@
         <v>138</v>
       </c>
       <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s">
         <v>750</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>431</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>751</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>752</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>442</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>25</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>753</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>442</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:15">
       <c r="A78" s="5" t="s">
         <v>26</v>
       </c>
@@ -56975,34 +57207,37 @@
         <v>176</v>
       </c>
       <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
         <v>754</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>431</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>755</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>756</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>442</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>25</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>757</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>442</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:15">
       <c r="A79" s="5" t="s">
         <v>355</v>
       </c>
@@ -57019,34 +57254,37 @@
         <v>187</v>
       </c>
       <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s">
         <v>758</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>431</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>759</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>760</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>442</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>25</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>761</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>442</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:15">
       <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
@@ -57063,34 +57301,37 @@
         <v>163</v>
       </c>
       <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
         <v>762</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>431</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>763</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>764</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>442</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>25</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>765</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>442</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:15">
       <c r="A81" s="5" t="s">
         <v>38</v>
       </c>
@@ -57107,34 +57348,37 @@
         <v>263</v>
       </c>
       <c r="F81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s">
         <v>766</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>431</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>767</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>768</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>442</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>25</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>769</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>442</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:15">
       <c r="A82" s="5" t="s">
         <v>361</v>
       </c>
@@ -57151,34 +57395,37 @@
         <v>120</v>
       </c>
       <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
         <v>770</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>431</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>771</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>772</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>442</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>25</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>773</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>442</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:15">
       <c r="A83" s="5" t="s">
         <v>44</v>
       </c>
@@ -57195,34 +57442,37 @@
         <v>254</v>
       </c>
       <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
         <v>774</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>431</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>775</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>776</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>442</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>25</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>777</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>442</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:15">
       <c r="A84" s="5" t="s">
         <v>365</v>
       </c>
@@ -57239,34 +57489,37 @@
         <v>366</v>
       </c>
       <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
         <v>778</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>431</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>779</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>780</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>442</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>25</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>781</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>442</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:15">
       <c r="A85" s="5" t="s">
         <v>369</v>
       </c>
@@ -57283,34 +57536,37 @@
         <v>370</v>
       </c>
       <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
         <v>782</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>431</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>783</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>784</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>442</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>25</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>785</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>442</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:15">
       <c r="A86" s="5" t="s">
         <v>373</v>
       </c>
@@ -57327,34 +57583,37 @@
         <v>254</v>
       </c>
       <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
         <v>786</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>431</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>787</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>788</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>442</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>25</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>789</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>442</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:15">
       <c r="A87" s="5" t="s">
         <v>376</v>
       </c>
@@ -57371,34 +57630,37 @@
         <v>145</v>
       </c>
       <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s">
         <v>790</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>431</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>791</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>792</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>442</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>25</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>793</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>442</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:15">
       <c r="A88" s="5" t="s">
         <v>68</v>
       </c>
@@ -57415,34 +57677,37 @@
         <v>378</v>
       </c>
       <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
         <v>795</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>431</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>796</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>797</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>442</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>25</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>798</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>442</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:15">
       <c r="A89" s="5" t="s">
         <v>74</v>
       </c>
@@ -57459,34 +57724,37 @@
         <v>380</v>
       </c>
       <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s">
         <v>800</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>431</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>801</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>802</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>442</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>25</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>803</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>442</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:15">
       <c r="A90" s="5" t="s">
         <v>383</v>
       </c>
@@ -57503,34 +57771,37 @@
         <v>370</v>
       </c>
       <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
         <v>804</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>431</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>805</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>806</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>442</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>25</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>807</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>442</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:15">
       <c r="A91" s="5" t="s">
         <v>386</v>
       </c>
@@ -57547,34 +57818,37 @@
         <v>378</v>
       </c>
       <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
         <v>808</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>431</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>809</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>810</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>442</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>25</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>811</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>442</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:15">
       <c r="A92" s="5" t="s">
         <v>389</v>
       </c>
@@ -57591,34 +57865,37 @@
         <v>141</v>
       </c>
       <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
         <v>812</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>431</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>813</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>814</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>442</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>25</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>815</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>442</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:15">
       <c r="A93" s="5" t="s">
         <v>392</v>
       </c>
@@ -57635,34 +57912,37 @@
         <v>378</v>
       </c>
       <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
         <v>816</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>431</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>817</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>818</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>442</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>25</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>819</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>442</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:15">
       <c r="A94" s="5" t="s">
         <v>47</v>
       </c>
@@ -57679,34 +57959,37 @@
         <v>345</v>
       </c>
       <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
         <v>820</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>431</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>821</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>822</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>442</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>25</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>823</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>442</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:15">
       <c r="A95" s="5" t="s">
         <v>397</v>
       </c>
@@ -57723,34 +58006,37 @@
         <v>366</v>
       </c>
       <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
         <v>824</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>431</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>825</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>826</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>442</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>25</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>827</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>442</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:15">
       <c r="A96" s="5" t="s">
         <v>400</v>
       </c>
@@ -57767,34 +58053,37 @@
         <v>141</v>
       </c>
       <c r="F96" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
         <v>828</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>431</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>829</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>830</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>442</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>25</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>831</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>442</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:15">
       <c r="A97" s="5" t="s">
         <v>403</v>
       </c>
@@ -57811,34 +58100,37 @@
         <v>404</v>
       </c>
       <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
         <v>832</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>431</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>833</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>834</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>442</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>25</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>835</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>442</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:15">
       <c r="A98" s="5" t="s">
         <v>407</v>
       </c>
@@ -57855,34 +58147,37 @@
         <v>366</v>
       </c>
       <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
         <v>836</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>431</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>837</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>838</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>442</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>25</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>839</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>442</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:15">
       <c r="A99" s="5" t="s">
         <v>410</v>
       </c>
@@ -57899,34 +58194,37 @@
         <v>411</v>
       </c>
       <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
         <v>840</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>431</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>841</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>842</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>442</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>25</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>843</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>442</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:15">
       <c r="A100" s="5" t="s">
         <v>414</v>
       </c>
@@ -57943,34 +58241,37 @@
         <v>366</v>
       </c>
       <c r="F100" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
         <v>844</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>431</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>845</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>846</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>442</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>25</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>847</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>442</v>
       </c>
-      <c r="N100" t="s">
+      <c r="O100" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:15">
       <c r="A101" s="5" t="s">
         <v>50</v>
       </c>
@@ -57987,34 +58288,37 @@
         <v>366</v>
       </c>
       <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
         <v>848</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>431</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>849</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>850</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>442</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>25</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>851</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>442</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:15">
       <c r="A102" s="5" t="s">
         <v>418</v>
       </c>
@@ -58031,30 +58335,33 @@
         <v>345</v>
       </c>
       <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
         <v>852</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>431</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>853</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>854</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>442</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>25</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>855</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>442</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>852</v>
       </c>
     </row>

--- a/examples/lusid/run-valuation/_data/simplified_valuation_data.xlsx
+++ b/examples/lusid/run-valuation/_data/simplified_valuation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\gl\luminesce-examples\examples\lusid\run-valuation\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EE996E-DAC8-4B74-820D-501F6482DDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B6249-BCD4-4C3B-98A7-039F4639CADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{9B4C99D2-EDDB-4E52-8D2A-FA7E829BFF4E}"/>
   </bookViews>
@@ -2607,7 +2607,7 @@
     <t>price_date</t>
   </si>
   <si>
-    <t>uk-ibor</t>
+    <t>uk-equity</t>
   </si>
 </sst>
 </file>
@@ -3467,7 +3467,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A24"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
